--- a/data/ExpA_code.xlsx
+++ b/data/ExpA_code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliafoley/Desktop/R/encapsulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081F2BA0-8582-F948-8996-B2C1E90391CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4252DE-254B-C94A-91AD-16914407C475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27240" windowHeight="15560" xr2:uid="{9E70DF39-CCA3-DF45-8288-A532A9D80375}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="18">
   <si>
     <t>G7</t>
   </si>
@@ -77,13 +77,19 @@
     <t>bio_rep</t>
   </si>
   <si>
-    <t>two_alg</t>
-  </si>
-  <si>
     <t>cell_loading</t>
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>alginate</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>encapsulated</t>
   </si>
 </sst>
 </file>
@@ -455,18 +461,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46B3FD0-5369-534C-8C80-487E5BB77265}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -477,16 +484,19 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -494,19 +504,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -514,19 +527,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -534,19 +550,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -554,19 +573,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -574,19 +596,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -594,19 +619,22 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -616,14 +644,14 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -633,14 +661,14 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -650,14 +678,14 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -667,14 +695,14 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -684,14 +712,14 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -701,14 +729,14 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>3</v>
       </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -716,13 +744,16 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -730,13 +761,16 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
